--- a/output/StructureDefinition-session-type.xlsx
+++ b/output/StructureDefinition-session-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T09:24:42+01:00</t>
+    <t>2025-06-23T10:40:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-session-type.xlsx
+++ b/output/StructureDefinition-session-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T10:40:32+01:00</t>
+    <t>2025-06-23T11:00:10+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-session-type.xlsx
+++ b/output/StructureDefinition-session-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T11:00:10+01:00</t>
+    <t>2025-06-23T12:00:39+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-session-type.xlsx
+++ b/output/StructureDefinition-session-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T12:00:39+01:00</t>
+    <t>2025-06-23T12:11:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-session-type.xlsx
+++ b/output/StructureDefinition-session-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T12:11:34+01:00</t>
+    <t>2025-06-23T13:45:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-session-type.xlsx
+++ b/output/StructureDefinition-session-type.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$7</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="110">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T13:45:54+01:00</t>
+    <t>2025-06-24T07:35:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -337,38 +334,24 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Type of vaccination session</t>
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://nphcda.gov.ng/ig/fhir/ValueSet/ng-session-type</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Type of vaccination session</t>
   </si>
 </sst>
 </file>
@@ -497,21 +480,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -704,7 +672,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -713,9 +681,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="32.89453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.41796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="16.41796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.38671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="9.79296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="7.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
@@ -723,7 +691,7 @@
     <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="14.375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -738,7 +706,7 @@
     <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="17.08203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.18359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.3828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
@@ -864,7 +832,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>31</v>
       </c>
@@ -967,7 +935,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>83</v>
       </c>
@@ -1070,7 +1038,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>90</v>
       </c>
@@ -1173,7 +1141,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>97</v>
       </c>
@@ -1278,7 +1246,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>103</v>
       </c>
@@ -1339,26 +1307,26 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AC6" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>103</v>
@@ -1373,136 +1341,13 @@
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>102</v>
       </c>
     </row>
-    <row r="7" hidden="true">
-      <c r="A7" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AK7">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI6">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/output/StructureDefinition-session-type.xlsx
+++ b/output/StructureDefinition-session-type.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Session Type</t>
+    <t>NG-Imm Session Type</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T07:35:37+01:00</t>
+    <t>2025-06-24T09:13:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-session-type.xlsx
+++ b/output/StructureDefinition-session-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T09:13:37+01:00</t>
+    <t>2025-06-25T06:29:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-session-type.xlsx
+++ b/output/StructureDefinition-session-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T06:29:04+01:00</t>
+    <t>2025-06-25T15:41:07+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -681,42 +681,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.41796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.41796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="7.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.04296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.04296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="14.375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="15.1015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="12.26171875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="12.4765625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="17.08203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.3828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="15.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.9921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="19.5625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="20.3359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
